--- a/documentacao/tabela_requisitos.xlsx
+++ b/documentacao/tabela_requisitos.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Fernando" sheetId="1" r:id="rId1"/>
-    <sheet name="Cândida" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Requisitos</t>
   </si>
@@ -183,11 +182,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,195 +479,195 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="78.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="77.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="78.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -679,38 +675,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>